--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Extracción Minera en el Salar de Carcote</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SQM Industrial S.A.</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Extracción Minera en el Salar de Carcote</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>SQM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Extracción Minera en el Salar de Carcote</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>SQM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción Minera en el Salar de Carcote</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SQM Industrial S.A.</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">

--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Desarrollo de Infraestructura y Mejoramiento de Capacidad Productiva de Collahuasi</t>
+          <t>Modificación Medida de Compensación Establecimiento de un Área de Compensación Ambiental Privada Laguna Ceusis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera Doña Inés de Collahuasi SCM</t>
+          <t>Minera Teck Quebrada Blanca</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>1700</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/01/2019</t>
+          <t>16/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142210954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155220788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/12/2018</t>
+          <t>14/01/2019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142126388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142210954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
+          <t>Desarrollo de Infraestructura y Mejoramiento de Capacidad Productiva de Collahuasi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CALTEC SpA</t>
+          <t>Compañía Minera Doña Inés de Collahuasi SCM</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>27/12/2018</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142126388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Central Geotérmica Cerro Pabellón</t>
+          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Geotérmica del Norte S.A.</t>
+          <t>CALTEC SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132770720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/07/2016</t>
+          <t>06/10/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131615979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132770720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación Proyecto Central Geotérmica Cerro Pabellón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Geotérmica del Norte S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>25/07/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131615979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,40 +952,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Electrica Cerro Pabellón</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Geotérmica del Norte S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>210</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7189173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica Cerro Pabellón</t>
+          <t>Línea de Transmisión Electrica Cerro Pabellón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7189173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Proyecto Línea de Transmisión Eléctrica Cerro Pabellón</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Geotérmica del Norte S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,40 +1096,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Central Geotérmica Cerro Pabellón</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Geotérmica del Norte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>180000</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/04/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5569783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,30 +1144,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Central Geotérmica Cerro Pabellón</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Geotérmica del Norte S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>180000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>29/04/2011</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5569783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,21 +1307,21 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>41075</v>
+        <v>78</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>86</v>
+        <v>41075</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/12/2009</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/12/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>800</v>
+        <v>91</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/05/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>07/05/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Estudios Hidrogeológicos en el Salar de Alconcha (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,12 +1970,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cía. Minera Quebrada Blanca S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2122124&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/04/2007</t>
+          <t>24/04/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2110344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2122124&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Estudios Hidrogeológicos en el Salar de Alconcha (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Cía. Minera Quebrada Blanca S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>343000</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>17/04/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2110344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>343000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Indeclin Ltda.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Indeclin Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>03/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>alberto eduardo oñate cea</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>alberto eduardo oñate cea</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,40 +2392,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Contenedores con Concentrados de Minerales de Minera San Cristóbal (Segunda Presentación)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Antofagasta Railway Company PLC (FCAB)</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25000</v>
+        <v>138</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>07/01/2005</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Contenedores con Concentrados de Minerales de Minera San Cristóbal</t>
+          <t>Transporte Ferroviario de Contenedores con Concentrados de Minerales de Minera San Cristóbal (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ferrocarril de Antofagasta a Bolivia</t>
+          <t>Antofagasta Railway Company PLC (FCAB)</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>07/01/2005</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Transporte Ferroviario de Contenedores con Concentrados de Minerales de Minera San Cristóbal</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>Ferrocarril de Antofagasta a Bolivia</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21/10/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción Minera en el Salar de Carcote</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SQM Industrial S.A.</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
+          <t>Extracción Minera en el Salar de Carcote</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SEREMI MINVU II REGION</t>
+          <t>SQM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>21/10/2004</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
+          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>SEREMI MINVU II REGION</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plan Regulador Ollagüe</t>
+          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ollagüe</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/12/2000</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Plan Regulador Ollagüe</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Ilustre Municipalidad de Ollagüe</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>340000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/10/2000</t>
+          <t>05/12/2000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,43 +2776,91 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Minera San Cristóbal S.A.</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>340000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>27/10/2000</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Ollagüe</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Sistema de Extracción y Transporte de Aguas Superficiales del Sector Quebrada Cebollar Viejo</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Sociedad Quimica y Minera de Chile S.A.</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>250</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>20/04/1999</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1878&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Ollagüe</t>
         </is>

--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Extracción Minera en el Salar de Carcote</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>SQM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Extracción Minera en el Salar de Carcote</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SQM Industrial S.A.</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción Minera en el Salar de Carcote</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SQM Industrial S.A.</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Extracción Minera en el Salar de Carcote</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>SQM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Extracción Minera en el Salar de Carcote</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SQM Industrial S.A.</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Extracción Minera en el Salar de Carcote</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>SQM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">

--- a/data/Ollagüe.xlsx
+++ b/data/Ollagüe.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minera Teck Quebrada Blanca</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cía. Minera Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cía. Minera Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F36" t="n">
